--- a/medicine/Enfance/Oui-Oui/Oui-Oui.xlsx
+++ b/medicine/Enfance/Oui-Oui/Oui-Oui.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Oui-Oui (en anglais : Noddy) est un personnage fictif de livres pour enfants et de dessins animés pour enfants créé par Enid Blyton en 1949 avec l'aide de l'illustrateur néerlandais Harmsen van der Beek.
@@ -514,9 +526,11 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Oui-Oui est le prénom d'un pantin de bois, à la tête articulée par un ressort qui se balance d'avant en arrière, comme pour dire oui. Il porte toujours un bonnet bleu surmonté d'un grelot qui sonne quand sa tête bouge et un éternel foulard jaune à pois rouges. Il vit au pays des jouets, Miniville, dans lequel il a sa « maison-pour-lui-tout-seul ». Bien qu'étant un enfant[1], Oui-Oui est le chauffeur de taxi et livreur de la ville et transporte ses amis dans sa voiture, dotée elle aussi d'une personnalité (elle ne parle pas, mais prend des initiatives et s'exprime à coups d'avertisseur sonore).
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Oui-Oui est le prénom d'un pantin de bois, à la tête articulée par un ressort qui se balance d'avant en arrière, comme pour dire oui. Il porte toujours un bonnet bleu surmonté d'un grelot qui sonne quand sa tête bouge et un éternel foulard jaune à pois rouges. Il vit au pays des jouets, Miniville, dans lequel il a sa « maison-pour-lui-tout-seul ». Bien qu'étant un enfant, Oui-Oui est le chauffeur de taxi et livreur de la ville et transporte ses amis dans sa voiture, dotée elle aussi d'une personnalité (elle ne parle pas, mais prend des initiatives et s'exprime à coups d'avertisseur sonore).
 </t>
         </is>
       </c>
@@ -545,10 +559,12 @@
           <t>Livres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les premières histoires de Oui-Oui présentent des golliwogs, poupées à l'effigie de noirs africains. Ces poupées étaient très prisées au Royaume-Uni, à l'époque où ces histoires étaient rédigées, mais elles ont été par la suite critiquées et perçues comme un stéréotype racial[2]. Les deux principaux antagonistes étaient des gobelins nommés Sly et Gobbo en 1989.
-En novembre 2008, Sophie Smallwood, petite-fille d'Enid Blyton, publie une aventure inédite de Oui-Oui en version anglaise[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les premières histoires de Oui-Oui présentent des golliwogs, poupées à l'effigie de noirs africains. Ces poupées étaient très prisées au Royaume-Uni, à l'époque où ces histoires étaient rédigées, mais elles ont été par la suite critiquées et perçues comme un stéréotype racial. Les deux principaux antagonistes étaient des gobelins nommés Sly et Gobbo en 1989.
+En novembre 2008, Sophie Smallwood, petite-fille d'Enid Blyton, publie une aventure inédite de Oui-Oui en version anglaise.
 </t>
         </is>
       </c>
@@ -577,13 +593,15 @@
           <t>Séries d'animation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les histoires de Oui-Oui et son taxi ont été adaptées en deux séries d'animation, par animation image par image (plus précisément : en stop motion) produite entre 1992 et 2000, puis en images de synthèse. En France, dans toutes ces réalisations, trois comédiens interprètent l'ensemble des personnages : Brigitte Lecordier prête sa voix à Oui-Oui[4], Évelyne Grandjean aux voix additionnelles féminines, et Patrick Préjean aux voix additionnelles masculines[5].
-Oui-Oui est une série d'animation ciblant un très jeune public âgé entre 2 et 3 ans. Il existe deux séries différentes, dont la plus vieille, créée en 1986, et une beaucoup plus récente, diffusée à partir du 31 mars 2003 sur France 5 dans l'émission Midi les Zouzous et sur TiJi et Canal J, rediffusée dans Zouzous depuis le 25 juin 2011, à l'occasion des soixante années d'existence du personnage[6]. Elle est diffusée depuis le 6 juillet 2015 sur France 4, dans Zouzous[7].
-La version produite en 1975 a été diffusée au Québec à partir du 18 septembre 1977 à la Télévision de Radio-Canada[8].
-La version produite en 1992 a été diffusée au Québec à partir du 8 septembre 1994 sur Canal Famille[9], et en France à partir du	10 septembre 1994 sur France 3 dans Bonjour Babar.
-Depuis mars 2016, une nouvelle version de la série animée 3D intitulée Oui-Oui : Enquêtes au Pays des jouets est proposée le samedi matin dans Zouzous sur France 5[10],[11]. Cette série écrite par Diane Morel et produite par France Télévisions, Gaumont et DreamWorks Animation propose une refonte totale des personnages.
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les histoires de Oui-Oui et son taxi ont été adaptées en deux séries d'animation, par animation image par image (plus précisément : en stop motion) produite entre 1992 et 2000, puis en images de synthèse. En France, dans toutes ces réalisations, trois comédiens interprètent l'ensemble des personnages : Brigitte Lecordier prête sa voix à Oui-Oui, Évelyne Grandjean aux voix additionnelles féminines, et Patrick Préjean aux voix additionnelles masculines.
+Oui-Oui est une série d'animation ciblant un très jeune public âgé entre 2 et 3 ans. Il existe deux séries différentes, dont la plus vieille, créée en 1986, et une beaucoup plus récente, diffusée à partir du 31 mars 2003 sur France 5 dans l'émission Midi les Zouzous et sur TiJi et Canal J, rediffusée dans Zouzous depuis le 25 juin 2011, à l'occasion des soixante années d'existence du personnage. Elle est diffusée depuis le 6 juillet 2015 sur France 4, dans Zouzous.
+La version produite en 1975 a été diffusée au Québec à partir du 18 septembre 1977 à la Télévision de Radio-Canada.
+La version produite en 1992 a été diffusée au Québec à partir du 8 septembre 1994 sur Canal Famille, et en France à partir du	10 septembre 1994 sur France 3 dans Bonjour Babar.
+Depuis mars 2016, une nouvelle version de la série animée 3D intitulée Oui-Oui : Enquêtes au Pays des jouets est proposée le samedi matin dans Zouzous sur France 5,. Cette série écrite par Diane Morel et produite par France Télévisions, Gaumont et DreamWorks Animation propose une refonte totale des personnages.
 </t>
         </is>
       </c>
@@ -612,7 +630,9 @@
           <t>Personnages</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Oui-Oui : est un pantin de bois, à la tête articulée par un ressort qui se balance d'avant en arrière, comme pour dire oui. Il porte toujours un bonnet bleu surmonté d'un grelot qui sonne quand sa tête bouge et un éternel foulard jaune à pois rouges.
 Marie/Mirou : est l'oursonne en peluche amie de Oui-Oui. Elle porte toujours un chapeau rose avec des fleurs bleues et une jupe rose à pois blanc.
@@ -659,7 +679,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Brigitte Lecordier : Oui-Oui, un enfant quille
 Évelyne Grandjean : Mirou, Mélissa, Mlle Ouistiti, Mlle Chatounette, Mme la Quille
@@ -694,7 +716,13 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Les Aventures de Oui-Oui (The Adventures of Noddy, 1955-1963)
+          <t>Les Aventures de Oui-Oui (The Adventures of Noddy, 1955-1963)</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Hello Little Noddy
 How Noddy Came to Toyland
 Noddy's New Car
@@ -748,9 +776,47 @@
 The Kangaroo
 The Dark Wood
 Fly Away Cake
-Les Nouvelles Aventures de Oui-Oui (The Further Adventures of Noddy, 1963-1975)
-Oui-Oui (Noddy, 1975-1982)
-Saison 1 (1975)
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Oui-Oui</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Oui-Oui</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Liste des épisodes (séries d'animation)</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Oui-Oui (Noddy, 1975-1982)</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Saison 1 (1975)</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Noddy Goes to Toyland
 Hurrah for Noddy
 Noddy and His Car
@@ -762,7 +828,47 @@
 Noddy and the Magic Rubber
 Noddy and Tessie Bear
 Noddy Be Brave
-Saison 2 (1976)
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Oui-Oui</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Oui-Oui</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Liste des épisodes (séries d'animation)</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Oui-Oui (Noddy, 1975-1982)</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Saison 2 (1976)</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 You're a Good Friend, Noddy
 Here Comes Noddy Again
 You Funny Little Noddy
@@ -777,9 +883,84 @@
 Noddy and the Aeroplane
 Noddy Builds a House
 Noddy Meets Father Christmas
-Oui-Oui du Pays des jouets (Noddy's Toyland Adventures, 1992-1999)
-Série d'animation en stop-motion produite par Cosgrove Hall Films, composée de 52 épisodes de 10 minutes et d'un épisode spécial de Noël de 30 minutes.
-Saison 1 (1992)
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Oui-Oui</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Oui-Oui</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Liste des épisodes (séries d'animation)</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Oui-Oui du Pays des jouets (Noddy's Toyland Adventures, 1992-1999)</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Série d'animation en stop-motion produite par Cosgrove Hall Films, composée de 52 épisodes de 10 minutes et d'un épisode spécial de Noël de 30 minutes.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Oui-Oui</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Oui-Oui</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Liste des épisodes (séries d'animation)</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Oui-Oui du Pays des jouets (Noddy's Toyland Adventures, 1992-1999)</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Saison 1 (1992)</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
  Oui-Oui perd six sous (Noddy Loses Sixpence)
  Oui-Oui et les Lutins (Noddy and the Goblins)
  Oui-Oui et la Gomme magique (Noddy and the Naughty Tail)
@@ -793,7 +974,47 @@
  Oui-Oui a cassé sa bicyclette (Noddy and the Broken Bicycle)
  Oui-Oui et la Drôle de clef (Noddy and the Special Key)
  Oui-Oui va au marché (Noddy Delivers Some Parcels)
-Saison 2 (1993)
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Oui-Oui</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Oui-Oui</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Liste des épisodes (séries d'animation)</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Oui-Oui du Pays des jouets (Noddy's Toyland Adventures, 1992-1999)</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Saison 2 (1993)</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
  Oui-Oui et la Valse des bonnets (Noddy and the Missing Hats)
  Oui-Oui et la Corde à tout faire (Noddy and the Useful Rope)
  Oui-Oui et le Grelot vagabond (Noddy Loses His Bell)
@@ -807,7 +1028,47 @@
  Oui-Oui et la Nuit magique (Noddy and the Magic Night)
  Oui-Oui et l'Ourson mal léché (Noddy to the Rescue)
  Oui-Oui et la Journée de folie (Noddy Has a Bad Day)
-Saison 3 (1994)
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Oui-Oui</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Oui-Oui</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Liste des épisodes (séries d'animation)</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Oui-Oui du Pays des jouets (Noddy's Toyland Adventures, 1992-1999)</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Saison 3 (1994)</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
  Oui-Oui et le Concours de pêche (Noddy and the Fishing Rod)
  Oui-Oui et les Girafes en colère (Noddy and the Warm Scarf)
  Oui-Oui et le Concours sportif (Noddy the Champion)
@@ -821,7 +1082,47 @@
  Oui-Oui s’achète un parasol (Noddy Buys a Parasol)
  Oui-Oui et le Concours de gâteaux (Noddy Tastes Some Cakes)
  Oui-Oui et le Concours de danse (Noddy the Dancer)
-Saison 4 (2000)
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Oui-Oui</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Oui-Oui</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Liste des épisodes (séries d'animation)</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Oui-Oui du Pays des jouets (Noddy's Toyland Adventures, 1992-1999)</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Saison 4 (2000)</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
  Oui-Oui et la Montre magique (Noddy and the Magic Watch)
  Oui-Oui et les Voleurs (Noddy and the Goblins)
  Oui-Oui et la Carte au trésor (Noddy and the Treasure Map)
@@ -835,9 +1136,83 @@
 Titre français inconnu (Noddy and the Artists)
  Oui-Oui et la Fête de boîtes de conserves (Noddy the Nurse)
  Oui-Oui donne une leçon de conduite (Noddy and the Driving Lesson)
-Spécial (1994)
- Oui-Oui et le Père Noël (Noddy and Father Christmas) - 30 min.
-Oui-Oui (Noddy, 1998-2000)
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Oui-Oui</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Oui-Oui</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Liste des épisodes (séries d'animation)</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Oui-Oui du Pays des jouets (Noddy's Toyland Adventures, 1992-1999)</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Spécial (1994)</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Oui-Oui et le Père Noël (Noddy and Father Christmas) - 30 min.</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Oui-Oui</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Oui-Oui</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Liste des épisodes (séries d'animation)</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Oui-Oui (Noddy, 1998-2000)</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 The Magic Key
 Monkey Business
 Mixed up Magic
@@ -904,8 +1279,43 @@
 Be Patient
 Kate Loves a Parade
 Closing up Shop
-Oui-Oui (Make Way for Noddy, 2002-2007)
-Série d'animation en images générées par ordinateur produite par Chorion, composée de 100 épisodes de 12 min et de 3 épisodes spéciaux de 26 min.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Oui-Oui</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Oui-Oui</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Liste des épisodes (séries d'animation)</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Oui-Oui (Make Way for Noddy, 2002-2007)</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Série d'animation en images générées par ordinateur produite par Chorion, composée de 100 épisodes de 12 min et de 3 épisodes spéciaux de 26 min.
 saison 1 (2002)
  Beaucoup de Oui-Oui, c'est trop (Too Many Noddies)
  Oui-Oui et l'autre taxi (Noddy and the New Taxi)
@@ -1009,12 +1419,85 @@
  L'Affaire des gâteaux volés
  Quand ça sonne vrai
 Voix : Brigitte Lecordier : Oui-Oui, Patrick Préjean : narration et les voix masculines, Evelyne Grandjean : Voix féminine
-Spéciaux
- Oui-Oui sauve Noël (Noddy Saves Christmas is 2004)
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Oui-Oui</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Oui-Oui</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Liste des épisodes (séries d'animation)</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Oui-Oui (Make Way for Noddy, 2002-2007)</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>Spéciaux</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Oui-Oui sauve Noël (Noddy Saves Christmas is 2004)
  Oui-Oui et l'île de l'aventure (Noddy And The Adventure is 2005)
- Oui-Oui et la lune magique (30 min.)
-J'apprends l'anglais avec Oui-Oui (Say It With Noddy, 2005)
-Série d'animation en CGI produite par Chorion, composée de 124 épisodes de 3 min.
+ Oui-Oui et la lune magique (30 min.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Oui-Oui</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Oui-Oui</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Liste des épisodes (séries d'animation)</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>J'apprends l'anglais avec Oui-Oui (Say It With Noddy, 2005)</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Série d'animation en CGI produite par Chorion, composée de 124 épisodes de 3 min.
  Spanish 1: Party
  Spanish 2: Paint
  Spanish 3: Good Job
@@ -1139,8 +1622,43 @@
  French 38: One, Two, Three
  French 39: Hammer
  French 40: Ice Cream
-Oui-Oui au Pays des jouets (Noddy in Toyland, 2009)
-Série d'animation en CGI produite par Chorion, composée de 52 épisodes de 11 min.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Oui-Oui</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Oui-Oui</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Liste des épisodes (séries d'animation)</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Oui-Oui au Pays des jouets (Noddy in Toyland, 2009)</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Série d'animation en CGI produite par Chorion, composée de 52 épisodes de 11 min.
  Le Pinceau magique (Noddy and The Magic Paintbrush)
  La Gelée géante (Noddy and The Giant Jelly)
  Mirou photographe (Tessie's Photo Fun)
@@ -1193,10 +1711,80 @@
  Oui-Oui sauve Caracole (Dapple and the Dolls)
  Un de perdu, dix de retrouvés (Noddy and the Lost Teeth)
  De la neige en été (Frozen Fun)
-Oui-Oui : Enquêtes au Pays des jouets (Noddy, Toyland Detective, 2016-2020)
-Série d'animation en CGI produite par DreamWorks Animation Television et Gaumont Animation, composée de 52 épisodes de 12 min.
-Sorties DVD
-La série Oui-Oui (2002-2008) est sortie en DVD (15 vol.) :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Oui-Oui</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Oui-Oui</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Liste des épisodes (séries d'animation)</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Oui-Oui : Enquêtes au Pays des jouets (Noddy, Toyland Detective, 2016-2020)</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Série d'animation en CGI produite par DreamWorks Animation Television et Gaumont Animation, composée de 52 épisodes de 12 min.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Oui-Oui</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Oui-Oui</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Liste des épisodes (séries d'animation)</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Sorties DVD</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>La série Oui-Oui (2002-2008) est sortie en DVD (15 vol.) :
 La Grande Parade des jouets (7 épisodes)
 Oui-Oui et la Fleur géante (7 épisodes)
 Oui-Oui et la Fusée magique (7 épisodes)
@@ -1215,62 +1803,66 @@
         </is>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Oui-Oui</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Portail:Enfance/Articles liés</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Oui-Oui</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Oui-Oui</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Oui-Oui</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
         <is>
           <t>Jeux vidéo</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Oui-Oui est également adapté en jeux vidéo éducatifs. En France, Oui-Oui : L'Aventure magique paraît en 2000, édité par BBC sur PlayStation 1. Le 25 novembre 2005 paraît Oui-Oui : Une journée au Pays des jouets, un jeu-vidéo édité par The Game Factory pour Gameboy Advance[12]. Le même jour, un jeu intitulé Oui-Oui et l'Horloge magique sort sur Mac et PC[13],[14]. Également adapté sur PC, En taxi avec Oui-Oui sort le 15 novembre 2007[15],[16]. Oui-Oui et le Livre magique, un jeu vidéo édité par The Game Factory et développé par Neko Entertainment, paraît le 20 octobre 2006 sur console PlayStation 2[17]. Plus tard, l'éditeur Emme fait paraître le jeu vidéo Oui-Oui au Pays des jouets, le 5 novembre 2010 sur Nintendo DS[18].
+      <c r="F24" t="inlineStr"/>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Oui-Oui est également adapté en jeux vidéo éducatifs. En France, Oui-Oui : L'Aventure magique paraît en 2000, édité par BBC sur PlayStation 1. Le 25 novembre 2005 paraît Oui-Oui : Une journée au Pays des jouets, un jeu-vidéo édité par The Game Factory pour Gameboy Advance. Le même jour, un jeu intitulé Oui-Oui et l'Horloge magique sort sur Mac et PC,. Également adapté sur PC, En taxi avec Oui-Oui sort le 15 novembre 2007,. Oui-Oui et le Livre magique, un jeu vidéo édité par The Game Factory et développé par Neko Entertainment, paraît le 20 octobre 2006 sur console PlayStation 2. Plus tard, l'éditeur Emme fait paraître le jeu vidéo Oui-Oui au Pays des jouets, le 5 novembre 2010 sur Nintendo DS.
 </t>
         </is>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Oui-Oui</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Portail:Enfance/Articles liés</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Oui-Oui</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Oui-Oui</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Oui-Oui</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
         <is>
           <t>Parodies</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="F25" t="inlineStr"/>
+      <c r="G25" t="inlineStr"/>
+      <c r="H25" t="inlineStr">
         <is>
           <t>Les Guignols de l'info ont utilisé l'univers de Oui-Oui pour parodier le socialiste Lionel Jospin, alors Premier ministre.
 La série d'animation Les Kassos parodie le personnage de Oui-Oui, l'appelant « Ouais-Ouais » et le dépeignant en fan de tuning désagréable et irresponsable avec un fort accent, accompagné de sa femme — avec un accent elle aussi — et leur bébé.
